--- a/Tarea 9.xlsx
+++ b/Tarea 9.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/5-ITESO/Métodos de Optimización de Ingeniería Financiera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455811D6-7E2A-F243-902B-C0E10C465CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BCF69F-E7B8-1B40-B340-AB073BC05E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{0C5ECF58-9E7B-B342-901D-585335D6DF15}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{0C5ECF58-9E7B-B342-901D-585335D6DF15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Ones</t>
   </si>
@@ -51,6 +52,18 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Height^2</t>
+  </si>
+  <si>
+    <t>Height^3</t>
+  </si>
+  <si>
+    <t>Height^4</t>
+  </si>
+  <si>
+    <t>Height^5</t>
   </si>
 </sst>
 </file>
@@ -425,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6649C6C-4EA5-5F4A-96C2-D29CCF6D6EEA}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,4 +804,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C6573B-1BDA-A84E-A265-B0DBAD95C128}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.75</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2^2</f>
+        <v>3.0625</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2^3</f>
+        <v>5.359375</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2^4</f>
+        <v>9.37890625</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2^5</f>
+        <v>16.4130859375</v>
+      </c>
+      <c r="G2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.68</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C21" si="0">B3^2</f>
+        <v>2.8223999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D21" si="1">B3^3</f>
+        <v>4.7416319999999992</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E21" si="2">B3^4</f>
+        <v>7.965941759999998</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F21" si="3">B3^5</f>
+        <v>13.382782156799996</v>
+      </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.82</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3124000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0285680000000008</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>10.971993760000002</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="3"/>
+        <v>19.969028643200005</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.096000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>6.553600000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>10.485760000000006</v>
+      </c>
+      <c r="G5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.77</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1329000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5452330000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8150624100000012</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>17.372660465700001</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.69</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8560999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.826808999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1573072099999973</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>13.785849184899995</v>
+      </c>
+      <c r="G7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.73</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9929000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1777170000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9574504099999999</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>15.4963892093</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.24</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8320000000000007</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>10.497600000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>18.895680000000006</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.66</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5742959999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5933313599999988</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>12.604930057599997</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1.78</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1684000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6397520000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>10.038758560000002</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>17.868990236800002</v>
+      </c>
+      <c r="G11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1.74</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0276000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2680240000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1663617600000009</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>15.949469462400002</v>
+      </c>
+      <c r="G12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.65</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7224999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4921249999999997</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4120062499999984</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>12.229810312499996</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9129999999999994</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3520999999999983</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>14.198569999999997</v>
+      </c>
+      <c r="G14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.81</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2761</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9297409999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>10.732831210000001</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>19.4264244901</v>
+      </c>
+      <c r="G15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1.67</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7888999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6574629999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7779632099999993</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>12.989198560699998</v>
+      </c>
+      <c r="G16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.76</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0975999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4517759999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5951257600000002</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>16.887421337599999</v>
+      </c>
+      <c r="G17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1.63</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6568999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3307469999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0591176099999986</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>11.506361704299996</v>
+      </c>
+      <c r="G18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.79</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2040999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7353389999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>10.26625681</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>18.376599689900001</v>
+      </c>
+      <c r="G19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1.71</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9240999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0002109999999993</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>8.550360809999999</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>14.621116985099999</v>
+      </c>
+      <c r="G20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1.64</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6895999999999995</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4109439999999989</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>7.233948159999998</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>11.863674982399996</v>
+      </c>
+      <c r="G21">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tarea 9.xlsx
+++ b/Tarea 9.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/5-ITESO/Métodos de Optimización de Ingeniería Financiera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BCF69F-E7B8-1B40-B340-AB073BC05E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9543CAF-7F3F-1F42-B59C-3DC040E62EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{0C5ECF58-9E7B-B342-901D-585335D6DF15}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="19080" windowHeight="21100" activeTab="2" xr2:uid="{0C5ECF58-9E7B-B342-901D-585335D6DF15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Ones</t>
   </si>
@@ -64,6 +66,12 @@
   </si>
   <si>
     <t>Height^5</t>
+  </si>
+  <si>
+    <t>Average Height</t>
+  </si>
+  <si>
+    <t>BMI</t>
   </si>
 </sst>
 </file>
@@ -810,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C6573B-1BDA-A84E-A265-B0DBAD95C128}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="B1:B21 G1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1382,4 +1390,519 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B5E58-200F-4F44-9F4D-5DD37CE2C95F}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.75</v>
+      </c>
+      <c r="B2">
+        <v>1.72</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.68</v>
+      </c>
+      <c r="B3">
+        <v>1.72</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.82</v>
+      </c>
+      <c r="B4">
+        <v>1.72</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B5">
+        <v>1.72</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.77</v>
+      </c>
+      <c r="B6">
+        <v>1.72</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.69</v>
+      </c>
+      <c r="B7">
+        <v>1.72</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.73</v>
+      </c>
+      <c r="B8">
+        <v>1.72</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>1.72</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.66</v>
+      </c>
+      <c r="B10">
+        <v>1.72</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.78</v>
+      </c>
+      <c r="B11">
+        <v>1.72</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.74</v>
+      </c>
+      <c r="B12">
+        <v>1.72</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.65</v>
+      </c>
+      <c r="B13">
+        <v>1.72</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="B14">
+        <v>1.72</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.81</v>
+      </c>
+      <c r="B15">
+        <v>1.72</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.67</v>
+      </c>
+      <c r="B16">
+        <v>1.72</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.76</v>
+      </c>
+      <c r="B17">
+        <v>1.72</v>
+      </c>
+      <c r="C17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.63</v>
+      </c>
+      <c r="B18">
+        <v>1.72</v>
+      </c>
+      <c r="C18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.79</v>
+      </c>
+      <c r="B19">
+        <v>1.72</v>
+      </c>
+      <c r="C19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.71</v>
+      </c>
+      <c r="B20">
+        <v>1.72</v>
+      </c>
+      <c r="C20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.64</v>
+      </c>
+      <c r="B21">
+        <v>1.72</v>
+      </c>
+      <c r="C21">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2D12F-6031-F746-AA67-F3672F5E4947}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.75</v>
+      </c>
+      <c r="B2" s="1">
+        <f>C2/A2^2</f>
+        <v>23.510204081632654</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.68</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B21" si="0">C3/A3^2</f>
+        <v>23.030045351473927</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.82</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>23.547880690737831</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>22.656249999999996</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.77</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>23.93948099205209</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.69</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>22.408178985329648</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.73</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>23.388686558187711</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>24.691358024691358</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.66</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>22.499637102627378</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.78</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>23.98687034465345</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.74</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>23.450918219051392</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.65</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>22.03856749311295</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.81</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>24.114038033027075</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.67</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>22.589551436050055</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.76</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>23.889462809917354</v>
+      </c>
+      <c r="C17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.63</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>22.206330686137981</v>
+      </c>
+      <c r="C18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.79</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>24.031709372366656</v>
+      </c>
+      <c r="C19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.71</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>23.59700420642249</v>
+      </c>
+      <c r="C20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.64</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>22.679952409280194</v>
+      </c>
+      <c r="C21">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>